--- a/Semester_3/Datenanalyse/VisualisierungsProjekt/Art_IKT_Nutzung_absolute_Zahlen.xlsx
+++ b/Semester_3/Datenanalyse/VisualisierungsProjekt/Art_IKT_Nutzung_absolute_Zahlen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malte\Desktop\GitHub\Studium\Semester_3\Datenanalyse\VisualisierungsProjekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/357609b57e560daa/Desktop/Repositories/Studium/Semester_3/Datenanalyse/VisualisierungsProjekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F78D11-CDF6-4D48-82F4-E912EEE60844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E1F78D11-CDF6-4D48-82F4-E912EEE60844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24983F0D-6F52-49EB-9A5D-4021379C275F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12231-9006" sheetId="1" r:id="rId1"/>
@@ -501,43 +501,43 @@
   <dimension ref="A1:BA46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.703125" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.29296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1171875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.29296875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.29296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.41015625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.29296875" style="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="14" width="28.140625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="28.1171875" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="25.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5859375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.41015625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1171875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.41015625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.41015625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1171875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="18.41015625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.1171875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="25.29296875" style="1" customWidth="1"/>
     <col min="46" max="46" width="14" style="1" customWidth="1"/>
     <col min="48" max="48" width="14" style="1" customWidth="1"/>
     <col min="50" max="50" width="14" style="1" customWidth="1"/>
-    <col min="52" max="52" width="28.140625" style="1" customWidth="1"/>
-    <col min="54" max="54" width="29.5703125" style="1" customWidth="1"/>
-    <col min="55" max="16384" width="12.7109375" style="1"/>
+    <col min="52" max="52" width="28.1171875" style="1" customWidth="1"/>
+    <col min="54" max="54" width="29.5859375" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="12.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="AY1" s="1"/>
       <c r="BA1" s="1"/>
     </row>
-    <row r="2" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>2006</v>
       </c>
@@ -681,7 +681,7 @@
       <c r="AY2" s="1"/>
       <c r="BA2" s="1"/>
     </row>
-    <row r="3" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>2007</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="AY3" s="1"/>
       <c r="BA3" s="1"/>
     </row>
-    <row r="4" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>2008</v>
       </c>
@@ -825,7 +825,7 @@
       <c r="AY4" s="1"/>
       <c r="BA4" s="1"/>
     </row>
-    <row r="5" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>2009</v>
       </c>
@@ -897,7 +897,7 @@
       <c r="AY5" s="1"/>
       <c r="BA5" s="1"/>
     </row>
-    <row r="6" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>2010</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="AY6" s="1"/>
       <c r="BA6" s="1"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A7" s="8">
         <v>2011</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="AY7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A8" s="8">
         <v>2012</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="AY8" s="1"/>
       <c r="BA8" s="1"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A9" s="8">
         <v>2013</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="AY9" s="1"/>
       <c r="BA9" s="1"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A10" s="8">
         <v>2014</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="AY10" s="1"/>
       <c r="BA10" s="1"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A11" s="8">
         <v>2015</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="AY11" s="1"/>
       <c r="BA11" s="1"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A12" s="8">
         <v>2016</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="AY12" s="1"/>
       <c r="BA12" s="1"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A13" s="8">
         <v>2017</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="AY13" s="1"/>
       <c r="BA13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A14" s="8">
         <v>2018</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="AY14" s="1"/>
       <c r="BA14" s="1"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A15" s="8">
         <v>2019</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="AY15" s="1"/>
       <c r="BA15" s="1"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A16" s="8">
         <v>2020</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="AY16" s="1"/>
       <c r="BA16" s="1"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A17" s="9">
         <v>2006</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>22878000</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A18" s="9">
         <v>2007</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>23985000</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A19" s="8">
         <v>2008</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>24928000</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A20" s="8">
         <v>2009</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>25617000</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A21" s="8">
         <v>2010</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>26683000</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A22" s="8">
         <v>2011</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>27093000</v>
       </c>
     </row>
-    <row r="23" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="8">
         <v>2012</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>27492000</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A24" s="8">
         <v>2013</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>28216000</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A25" s="8">
         <v>2014</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>29604000</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A26" s="8">
         <v>2015</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>30260000</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A27" s="8">
         <v>2016</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>31316000</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A28" s="8">
         <v>2017</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>31529000</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A29" s="8">
         <v>2018</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>32642000</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A30" s="8">
         <v>2019</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="W30" s="2"/>
       <c r="AV30" s="2"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A31" s="8">
         <v>2020</v>
       </c>
@@ -2251,7 +2251,7 @@
       <c r="W31" s="2"/>
       <c r="AV31" s="2"/>
     </row>
-    <row r="32" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T32" s="1"/>
       <c r="V32" s="1"/>
       <c r="X32" s="1"/>
@@ -2278,7 +2278,7 @@
       <c r="AY32" s="1"/>
       <c r="BA32" s="1"/>
     </row>
-    <row r="33" spans="16:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="16:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T33" s="1"/>
       <c r="V33" s="1"/>
       <c r="X33" s="1"/>
@@ -2305,7 +2305,7 @@
       <c r="AY33" s="1"/>
       <c r="BA33" s="1"/>
     </row>
-    <row r="34" spans="16:53" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="16:53" ht="12.3" x14ac:dyDescent="0.4">
       <c r="T34" s="1"/>
       <c r="V34" s="1"/>
       <c r="X34" s="1"/>
@@ -2332,7 +2332,7 @@
       <c r="AY34" s="1"/>
       <c r="BA34" s="1"/>
     </row>
-    <row r="35" spans="16:53" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="16:53" ht="12.3" x14ac:dyDescent="0.4">
       <c r="T35" s="1"/>
       <c r="V35" s="1"/>
       <c r="X35" s="1"/>
@@ -2359,7 +2359,7 @@
       <c r="AY35" s="1"/>
       <c r="BA35" s="1"/>
     </row>
-    <row r="36" spans="16:53" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="16:53" ht="12.3" x14ac:dyDescent="0.4">
       <c r="T36" s="1"/>
       <c r="V36" s="1"/>
       <c r="X36" s="1"/>
@@ -2386,7 +2386,7 @@
       <c r="AY36" s="1"/>
       <c r="BA36" s="1"/>
     </row>
-    <row r="37" spans="16:53" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:53" x14ac:dyDescent="0.5">
       <c r="P37"/>
       <c r="R37"/>
       <c r="S37" s="2"/>
@@ -2400,7 +2400,7 @@
       <c r="AY37" s="1"/>
       <c r="BA37" s="1"/>
     </row>
-    <row r="38" spans="16:53" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:53" x14ac:dyDescent="0.5">
       <c r="P38"/>
       <c r="Q38" s="2"/>
       <c r="R38"/>
@@ -2416,7 +2416,7 @@
       <c r="AY38" s="1"/>
       <c r="BA38" s="1"/>
     </row>
-    <row r="39" spans="16:53" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:53" x14ac:dyDescent="0.5">
       <c r="P39"/>
       <c r="R39"/>
       <c r="S39" s="2"/>
@@ -2430,7 +2430,7 @@
       <c r="AY39" s="1"/>
       <c r="BA39" s="1"/>
     </row>
-    <row r="40" spans="16:53" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:53" x14ac:dyDescent="0.5">
       <c r="P40"/>
       <c r="R40"/>
       <c r="S40" s="2"/>
@@ -2443,7 +2443,7 @@
       <c r="AY40" s="1"/>
       <c r="BA40" s="1"/>
     </row>
-    <row r="41" spans="16:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:53" x14ac:dyDescent="0.5">
       <c r="P41"/>
       <c r="R41"/>
       <c r="S41" s="2"/>
@@ -2456,7 +2456,7 @@
       <c r="AY41" s="1"/>
       <c r="BA41" s="1"/>
     </row>
-    <row r="42" spans="16:53" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:53" x14ac:dyDescent="0.5">
       <c r="P42"/>
       <c r="R42"/>
       <c r="S42" s="2"/>
@@ -2469,7 +2469,7 @@
       <c r="AY42" s="1"/>
       <c r="BA42" s="1"/>
     </row>
-    <row r="43" spans="16:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:53" x14ac:dyDescent="0.5">
       <c r="P43"/>
       <c r="R43"/>
       <c r="S43" s="2"/>
@@ -2481,7 +2481,7 @@
       <c r="AY43" s="1"/>
       <c r="BA43" s="1"/>
     </row>
-    <row r="44" spans="16:53" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:53" x14ac:dyDescent="0.5">
       <c r="P44"/>
       <c r="R44"/>
       <c r="S44" s="2"/>
@@ -2493,7 +2493,7 @@
       <c r="AY44" s="1"/>
       <c r="BA44" s="1"/>
     </row>
-    <row r="45" spans="16:53" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:53" x14ac:dyDescent="0.5">
       <c r="P45"/>
       <c r="R45"/>
       <c r="S45" s="2"/>
@@ -2505,7 +2505,7 @@
       <c r="AY45" s="1"/>
       <c r="BA45" s="1"/>
     </row>
-    <row r="46" spans="16:53" x14ac:dyDescent="0.25">
+    <row r="46" spans="16:53" x14ac:dyDescent="0.5">
       <c r="P46"/>
       <c r="R46"/>
       <c r="S46" s="2"/>
